--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1259775.812655468</v>
+        <v>1287207.039033677</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6849276.620892982</v>
+        <v>6950805.962588748</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
+        <v>31.5506869772999</v>
+      </c>
+      <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="E2" t="n">
-        <v>322.9639268876603</v>
-      </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>8.96502788335618</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>259.6137937513355</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>146.6325435271071</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>70.51894940702171</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>306.7827610468905</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>114.3486586083423</v>
       </c>
       <c r="G7" t="n">
-        <v>152.355512532834</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>325.174287998771</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>317.2780268016767</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1291,13 +1291,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>137.247051021543</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>206.485501777224</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1534,7 +1534,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>203.2613507217563</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>32.67077719907107</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1765,10 +1765,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>105.6319392430747</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1813,13 +1813,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>131.9969996527471</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>180.5956509507041</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>79.86552601431249</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2008,19 +2008,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>126.4702673604343</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.0275385056716</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2245,19 +2245,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5.990622819018409</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225762</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3430,10 +3430,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>145.8285166974201</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3442,7 +3442,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3481,7 +3481,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>231.1360967980516</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>24.62703520776672</v>
+        <v>124.6962773732646</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>211.478528293011</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3992,7 +3992,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>236.0942751322846</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4028,7 +4028,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225707</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>1245.9111659461</v>
       </c>
       <c r="C2" t="n">
-        <v>812.5785571901426</v>
+        <v>1211.809097169927</v>
       </c>
       <c r="D2" t="n">
-        <v>383.996882927411</v>
+        <v>1179.939716384776</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4373,7 +4373,7 @@
         <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1672.210736431008</v>
       </c>
     </row>
     <row r="3">
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.4397056785397</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="C4" t="n">
-        <v>711.8779941617646</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>269.215608100497</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4516,22 +4516,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1189.067828354493</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>902.1123202249237</v>
       </c>
       <c r="W4" t="n">
-        <v>1549.069749750006</v>
+        <v>902.1123202249237</v>
       </c>
       <c r="X4" t="n">
-        <v>1303.677995083419</v>
+        <v>656.7205655583361</v>
       </c>
       <c r="Y4" t="n">
-        <v>1076.258324397527</v>
+        <v>656.7205655583361</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>945.0851728516207</v>
+        <v>1453.317676650997</v>
       </c>
       <c r="C5" t="n">
-        <v>516.503498588889</v>
+        <v>1419.215607874824</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>983.3058230492688</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>549.531078207564</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>121.6636486167717</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>857.0776321906106</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="N5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.397026790869</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1899.780076724695</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1898.965026176133</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1479.822562755443</v>
       </c>
       <c r="Y5" t="n">
-        <v>1371.384743336529</v>
+        <v>1475.576843095501</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>187.8381257054811</v>
+        <v>593.0357356940362</v>
       </c>
       <c r="C7" t="n">
-        <v>187.8381257054811</v>
+        <v>420.4740241772612</v>
       </c>
       <c r="D7" t="n">
-        <v>187.8381257054811</v>
+        <v>254.5960313787839</v>
       </c>
       <c r="E7" t="n">
-        <v>187.8381257054811</v>
+        <v>254.5960313787839</v>
       </c>
       <c r="F7" t="n">
-        <v>187.8381257054811</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1012.274025098915</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.8381257054811</v>
+        <v>784.8543544130234</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>1382.412671899186</v>
       </c>
       <c r="C8" t="n">
-        <v>922.2621532402836</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D8" t="n">
-        <v>890.3927724551322</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>857.0776321906106</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1424.019617383917</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1408.917558003632</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1404.67183834369</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>815.3347072823371</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245547</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874947</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4753.146960239596</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257034</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247378</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2513.605954495037</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2235.172953748142</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1948.217445618573</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.798049006192</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284814</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902376</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160652</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064397</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T16" t="n">
-        <v>2532.736396587283</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U16" t="n">
-        <v>2399.406093907741</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V16" t="n">
-        <v>2112.450585778171</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.424181364463</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697876</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.222555802381</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.528123727751</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510149</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423108</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.737835489029</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315498</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068554</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252391</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.44832012543</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442446</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.806167997291</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.950713408324</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.808249987635</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287288</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>919.2235560586651</v>
+        <v>1003.573296407383</v>
       </c>
       <c r="C19" t="n">
-        <v>746.66184454189</v>
+        <v>831.0115848906077</v>
       </c>
       <c r="D19" t="n">
-        <v>580.7838517434127</v>
+        <v>665.1335920921304</v>
       </c>
       <c r="E19" t="n">
-        <v>580.7838517434127</v>
+        <v>495.3755883428676</v>
       </c>
       <c r="F19" t="n">
-        <v>404.0767977051689</v>
+        <v>318.6685343046238</v>
       </c>
       <c r="G19" t="n">
-        <v>238.4855227309966</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137108</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.615237106071</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622168</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200622</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453728</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324158</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.70722991045</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.315475243862</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y19" t="n">
-        <v>999.8958045579706</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
     <row r="20">
@@ -5738,64 +5738,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>845.9697221592259</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>673.4080106424508</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>507.5300178439736</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,22 +5996,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
         <v>5029.390139722817</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477116</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309365</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324589</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6148,10 +6148,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6178,19 +6178,19 @@
         <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962456</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
         <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419178</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
         <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066699</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6300,31 +6300,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,13 +6537,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
         <v>1107.588885023173</v>
@@ -6774,13 +6774,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
         <v>1107.588885023173</v>
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,25 +6938,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657337</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1801.89582945662</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1529.869425042911</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1284.477670376324</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376324</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883917</v>
+        <v>1141.396843814754</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716168</v>
+        <v>968.8351322979789</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093271</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538673</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640435</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873074</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410831</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981137</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814533</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773128</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526185</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526185</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.058751482739</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4547.836448799756</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.219498733582</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144616</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723927</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.935457023581</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>969.1486746501391</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>796.5869631333641</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>630.7089703348868</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>460.950966585624</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>284.2439125473802</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>118.6526375732076</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S43" t="n">
-        <v>2717.073078433324</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2471.193632011778</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2192.760631264884</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1905.805123135314</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1633.778718721606</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1388.386964055018</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1160.967293369126</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2472.724095295527</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2034.581622478951</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1598.671837653395</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1164.89709281169</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>737.0296632208979</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>335.6318318441618</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397516</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2481.810506693461</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693461</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263767</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097163</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055758</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239595</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4753.146960239595</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4493.924657556611</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4131.307707490438</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3726.452252901471</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3307.309789480782</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2899.023665780435</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>965.4711828007303</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>792.9094712839552</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>627.0314784854779</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>457.2734747362152</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>280.5664206979714</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>114.9751457237991</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2467.51614016237</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U46" t="n">
-        <v>2189.083139415475</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V46" t="n">
-        <v>1902.127631285905</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W46" t="n">
-        <v>1630.101226872197</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X46" t="n">
-        <v>1384.709472205609</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>1157.289801519717</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -8134,13 +8134,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,13 +8231,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,13 +8468,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,16 +8614,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1126.736919799243</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807232</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,7 +9182,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>513.4096169964332</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10185,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10422,16 +10422,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10598,7 +10598,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288114</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>50.14457787892923</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>40.15930123557294</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>185.1957776566207</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>58.58727362741787</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>143.6516710866786</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>178.3951296148077</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.0349065174847</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>37.46509486399633</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.87289402612566</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>81.782726914053</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>29.11146680044124</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>52.94985625022224</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>139.5921776627258</v>
+        <v>39.52293549722788</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.388026562680752</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142722</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>50.14457787893127</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142722</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26074,7 +26074,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>572940.1994625155</v>
+        <v>585622.5218857907</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>572940.1994625155</v>
+        <v>587906.0019317163</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>582892.1100885537</v>
+        <v>607490.8232156126</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>582892.1100885537</v>
+        <v>607490.8232156126</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>591117.2846544203</v>
+        <v>607490.8232156128</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>607490.8232156126</v>
+        <v>607490.8232156127</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>599265.6486497459</v>
+        <v>607490.8232156127</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>582892.1100885535</v>
+        <v>607490.8232156124</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26317,22 @@
         <v>402110.4899178063</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178064</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>379142.9234787573</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="F2" t="n">
-        <v>379142.9234787571</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="G2" t="n">
-        <v>384492.9988650102</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="H2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="I2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="J2" t="n">
         <v>395143.1881030142</v>
@@ -26344,16 +26344,16 @@
         <v>395143.1881030142</v>
       </c>
       <c r="M2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="N2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="O2" t="n">
-        <v>389793.1127167612</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="P2" t="n">
-        <v>379142.9234787571</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996337</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.9728418667</v>
+        <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171472.7657924763</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>78141.89423804609</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="F4" t="n">
-        <v>78141.89423804611</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="G4" t="n">
-        <v>79244.55236275081</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
         <v>81439.57146904283</v>
@@ -26454,10 +26454,10 @@
         <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
-        <v>80336.91334433813</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="P4" t="n">
-        <v>78141.89423804608</v>
+        <v>81439.57146904283</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.236083198</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5466.571720992702</v>
+        <v>-5466.571720992673</v>
       </c>
       <c r="C6" t="n">
-        <v>136724.7289387172</v>
+        <v>92093.74242231155</v>
       </c>
       <c r="D6" t="n">
-        <v>136724.7289387173</v>
+        <v>151107.2815465073</v>
       </c>
       <c r="E6" t="n">
-        <v>-6873.335058973636</v>
+        <v>53607.04446774653</v>
       </c>
       <c r="F6" t="n">
-        <v>227481.6869630635</v>
+        <v>235962.1536887962</v>
       </c>
       <c r="G6" t="n">
-        <v>223995.8906591668</v>
+        <v>235962.1536887962</v>
       </c>
       <c r="H6" t="n">
-        <v>223582.6230482155</v>
+        <v>235962.1536887962</v>
       </c>
       <c r="I6" t="n">
-        <v>235985.3780281788</v>
+        <v>235962.1536887962</v>
       </c>
       <c r="J6" t="n">
-        <v>124970.9126831886</v>
+        <v>124947.688343806</v>
       </c>
       <c r="K6" t="n">
-        <v>235985.3780281788</v>
+        <v>182916.2990500238</v>
       </c>
       <c r="L6" t="n">
-        <v>235985.3780281788</v>
+        <v>226569.8519621738</v>
       </c>
       <c r="M6" t="n">
-        <v>40384.19874511113</v>
+        <v>83761.98275080853</v>
       </c>
       <c r="N6" t="n">
-        <v>235985.3780281789</v>
+        <v>235962.1536887962</v>
       </c>
       <c r="O6" t="n">
-        <v>233141.9632892251</v>
+        <v>235962.1536887962</v>
       </c>
       <c r="P6" t="n">
-        <v>227481.6869630635</v>
+        <v>235962.1536887962</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760677</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760677</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,22 +27382,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>106.4730705056275</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>395.2382345799869</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>16.03487698809022</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>122.6735968424643</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>326.864903655947</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>97.42050141645257</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>60.59132488951902</v>
       </c>
       <c r="G7" t="n">
-        <v>11.57984969159659</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>108.5867600896399</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>83.52887324140028</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>33.58904338006434</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-7.641780219240337e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -34875,7 +34875,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,13 +34951,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,13 +35188,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1126.736919799243</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>40.81776196807232</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>513.4096169964332</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,10 +36048,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956047</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512943</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36516,13 +36516,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512943</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,10 +37315,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-5.881569965118661e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288114</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956044</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512945</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
